--- a/biology/Médecine/Georg_Albert_Lücke/Georg_Albert_Lücke.xlsx
+++ b/biology/Médecine/Georg_Albert_Lücke/Georg_Albert_Lücke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georg_Albert_L%C3%BCcke</t>
+          <t>Georg_Albert_Lücke</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Albert Lücke, né le 4 juin 1829 à Magdebourg en province de Saxe et mort le 20 février 1894 à Strasbourg (alors en Allemagne), est un chirurgien allemand, professeur à la Faculté de médecine de Strasbourg.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georg_Albert_L%C3%BCcke</t>
+          <t>Georg_Albert_Lücke</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était le fils de Johann Georg Karl Lücke et de Caroline Sophie Lücke née Coqui. Il épousa Johanna Henriette Fanny Methfessel, fille du professeur de musique Georg Adolf Friedrich Methfessel.
 Ses premières dispositions auraient dû le porter vers la poésie et les beaux-arts, mais finalement il préféra la médecine, car il avait l'impression qu'il y avait là trop de grands problèmes à résoudre. Il commença ses études à l'Université de Heidelberg puis, comme c'était alors l'usage en Allemagne, il les continua à Göttingen et à Halle, où il obtint son doctorat en 1854 avec une thèse : De Monstro Quodam Humano. Son diplôme obtenu, il voyagea quelque temps en Italie, en France et en Algérie.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Georg_Albert_L%C3%BCcke</t>
+          <t>Georg_Albert_Lücke</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Zur Behandlung des Kropfes, besonders des festen Kropfes, Berlin, 1868.
 (de) Die Lehre von den Geschwülsten in anatomischer und klinischer Beziehung, Erlangen: Enke, 1869.
